--- a/Pruebas/Pruebas KWA/HoraMilitar.xlsx
+++ b/Pruebas/Pruebas KWA/HoraMilitar.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Armando\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\GitHub\Compiladores\Pruebas\Pruebas KWA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
   <si>
     <t>(</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>" pm"</t>
+  </si>
+  <si>
+    <t>JMP</t>
+  </si>
+  <si>
+    <t>ETQTERMINAR</t>
+  </si>
+  <si>
+    <t>&lt;==ETQD</t>
+  </si>
+  <si>
+    <t>&lt;==ETQTERMINAR</t>
   </si>
 </sst>
 </file>
@@ -161,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -184,17 +196,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -206,12 +261,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -231,7 +334,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -493,1722 +596,1867 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="2"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>2</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>1</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>0</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="13"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>26</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>4</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="10">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>5</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>6</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>31</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>7</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="2">
+      <c r="C22" s="10"/>
+      <c r="D22" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>8</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="10"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>9</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>10</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C25" s="10"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>11</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>64</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>12</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>41</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>13</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="10">
+        <v>8</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>14</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C29" s="10"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>15</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>26</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>16</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="10">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>17</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="10"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>18</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>26</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>19</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="2" t="s">
+      <c r="C34" s="10">
+        <v>8</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>20</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="10"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>21</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>61</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>22</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>31</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>23</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="2">
+      <c r="C38" s="10"/>
+      <c r="D38" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>24</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" s="10"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>25</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C40" s="10"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>26</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C41" s="10"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>27</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>63</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>28</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>41</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>29</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="2" t="s">
+      <c r="C44" s="10">
+        <v>4</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>30</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C45" s="10"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>31</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>26</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>32</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="2" t="s">
+      <c r="C47" s="10">
+        <v>4</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>33</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="10"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>34</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>31</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>35</v>
       </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="2">
+      <c r="C50" s="10"/>
+      <c r="D50" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>36</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C51" s="10"/>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>37</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="10"/>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>38</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C53" s="10"/>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>39</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="4">
         <v>53</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>40</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="4">
         <v>59</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>41</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="2" t="s">
+      <c r="C56" s="10"/>
+      <c r="D56" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>42</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C57" s="10"/>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>43</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="4">
         <v>26</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>44</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="2" t="s">
+      <c r="C59" s="10">
+        <v>4</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>45</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C60" s="10"/>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>46</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="4">
         <v>31</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>47</v>
       </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="2">
+      <c r="C62" s="10"/>
+      <c r="D62" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>48</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C63" s="10"/>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>49</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C64" s="10"/>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>50</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C65" s="10"/>
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>51</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>51</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>52</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="4">
         <v>58</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>53</v>
       </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="2" t="s">
+      <c r="C68" s="10"/>
+      <c r="D68" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>54</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C69" s="10"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>55</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="4">
         <v>26</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E70" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>56</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="2" t="s">
+      <c r="C71" s="10">
+        <v>4</v>
+      </c>
+      <c r="D71" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>57</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C72" s="10"/>
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>58</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="4">
         <v>31</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>59</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="2">
+      <c r="C74" s="10"/>
+      <c r="D74" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>60</v>
       </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C75" s="10"/>
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>61</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C76" s="10"/>
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>62</v>
       </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C77" s="10"/>
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>63</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="4">
         <v>55</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <v>64</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="4">
         <v>58</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <v>65</v>
       </c>
-      <c r="C80" s="6"/>
-      <c r="D80" s="2" t="s">
+      <c r="C80" s="10"/>
+      <c r="D80" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <v>66</v>
       </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C81" s="10"/>
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>67</v>
       </c>
       <c r="C82" s="7">
         <v>16</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E82" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" s="2">
+        <v>68</v>
+      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" s="2">
+        <v>69</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" s="2">
+        <v>70</v>
+      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="9"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" s="2">
+        <v>71</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="9"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" s="2">
+        <v>72</v>
+      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="9"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" s="2">
+        <v>73</v>
+      </c>
+      <c r="C88" s="8"/>
+      <c r="D88" s="9"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" s="2">
+        <v>74</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="9"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" s="2">
+        <v>75</v>
+      </c>
+      <c r="C90" s="8"/>
+      <c r="D90" s="9"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2">
+        <v>76</v>
+      </c>
+      <c r="C91" s="4">
+        <v>11</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" s="2">
+        <v>77</v>
+      </c>
+      <c r="C92" s="10">
+        <v>4</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93" s="2">
+        <v>78</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="9"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" s="2">
+        <v>79</v>
+      </c>
+      <c r="C94" s="19">
+        <v>16</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>96</v>
+      </c>
+      <c r="B95" s="2">
+        <v>80</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>97</v>
+      </c>
+      <c r="B96" s="2">
+        <v>81</v>
+      </c>
+      <c r="C96" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>98</v>
+      </c>
+      <c r="B97" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="3">
-        <v>68</v>
-      </c>
-      <c r="C83" s="7"/>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="C97" s="10">
+        <v>8</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>99</v>
+      </c>
+      <c r="B98" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="3">
-        <v>69</v>
-      </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="C98" s="10"/>
+      <c r="D98" s="9"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>100</v>
+      </c>
+      <c r="B99" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="3">
-        <v>70</v>
-      </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="C99" s="14">
+        <v>16</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>101</v>
+      </c>
+      <c r="B100" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="3">
-        <v>71</v>
-      </c>
-      <c r="C86" s="7"/>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="C100" s="16"/>
+      <c r="D100" s="11"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>102</v>
+      </c>
+      <c r="B101" s="2">
         <v>86</v>
       </c>
-      <c r="B87" s="3">
-        <v>72</v>
-      </c>
-      <c r="C87" s="7"/>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="C101" s="10"/>
+      <c r="D101" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>103</v>
+      </c>
+      <c r="B102" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="3">
-        <v>73</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="C102" s="10"/>
+      <c r="D102" s="9"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>104</v>
+      </c>
+      <c r="B103" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="3">
-        <v>74</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="C103" s="10"/>
+      <c r="D103" s="9"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>105</v>
+      </c>
+      <c r="B104" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="3">
-        <v>75</v>
-      </c>
-      <c r="C90" s="7"/>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="C104" s="4">
+        <v>57</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>106</v>
+      </c>
+      <c r="B105" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="3">
-        <v>76</v>
-      </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="C105" s="10"/>
+      <c r="D105" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>107</v>
+      </c>
+      <c r="B106" s="2">
         <v>91</v>
       </c>
-      <c r="B92" s="3">
-        <v>77</v>
-      </c>
-      <c r="C92" s="5">
-        <v>11</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" s="3">
-        <v>78</v>
-      </c>
-      <c r="C93" s="6"/>
-      <c r="D93" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" s="3">
-        <v>79</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" s="3">
-        <v>80</v>
-      </c>
-      <c r="C95" s="7">
-        <v>16</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" s="3">
-        <v>81</v>
-      </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" s="3">
-        <v>82</v>
-      </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" s="3">
-        <v>83</v>
-      </c>
-      <c r="C98" s="5">
-        <v>11</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" s="3">
-        <v>84</v>
-      </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" s="3">
-        <v>85</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" s="3">
-        <v>86</v>
-      </c>
-      <c r="C101" s="7">
-        <v>16</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" s="3">
-        <v>87</v>
-      </c>
-      <c r="C102" s="7"/>
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" s="3">
-        <v>88</v>
-      </c>
-      <c r="C103" s="6"/>
-      <c r="D103" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" s="3">
-        <v>89</v>
-      </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" s="3">
-        <v>90</v>
-      </c>
-      <c r="C105" s="6"/>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" s="3">
-        <v>91</v>
-      </c>
-      <c r="C106" s="5">
-        <v>0</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C106" s="10"/>
+      <c r="D106" s="11"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" s="3">
+        <v>108</v>
+      </c>
+      <c r="B107" s="2">
         <v>92</v>
       </c>
       <c r="C107" s="5">
         <v>31</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E107" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
+        <v>109</v>
+      </c>
+      <c r="B108" s="2">
+        <v>93</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>110</v>
+      </c>
+      <c r="B109" s="2">
+        <v>94</v>
+      </c>
+      <c r="C109" s="21"/>
+      <c r="D109" s="11"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>111</v>
+      </c>
+      <c r="B110" s="2">
+        <v>95</v>
+      </c>
+      <c r="C110" s="21"/>
+      <c r="D110" s="11"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>112</v>
+      </c>
+      <c r="B111" s="2">
+        <v>96</v>
+      </c>
+      <c r="C111" s="13"/>
+      <c r="D111" s="11"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>113</v>
+      </c>
+      <c r="B112" s="2">
+        <v>97</v>
+      </c>
+      <c r="C112" s="7">
+        <v>41</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>114</v>
+      </c>
+      <c r="B113" s="2">
+        <v>98</v>
+      </c>
+      <c r="C113" s="12">
+        <v>4</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>115</v>
+      </c>
+      <c r="B114" s="2">
+        <v>99</v>
+      </c>
+      <c r="C114" s="13"/>
+      <c r="D114" s="11"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>116</v>
+      </c>
+      <c r="B115" s="2">
+        <v>100</v>
+      </c>
+      <c r="C115" s="5">
+        <v>57</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>117</v>
+      </c>
+      <c r="B116" s="2">
+        <v>101</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>118</v>
+      </c>
+      <c r="B117" s="2">
+        <v>102</v>
+      </c>
+      <c r="C117" s="13"/>
+      <c r="D117" s="11"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>119</v>
+      </c>
+      <c r="B118" s="2">
+        <v>103</v>
+      </c>
+      <c r="C118" s="23">
+        <v>26</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>120</v>
+      </c>
+      <c r="B119" s="2">
+        <v>104</v>
+      </c>
+      <c r="C119" s="24">
+        <v>4</v>
+      </c>
+      <c r="D119" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>121</v>
+      </c>
+      <c r="B120" s="2">
+        <v>105</v>
+      </c>
+      <c r="C120" s="24"/>
+      <c r="D120" s="20"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>122</v>
+      </c>
+      <c r="B121" s="2">
+        <v>106</v>
+      </c>
+      <c r="C121" s="17">
+        <v>31</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>123</v>
+      </c>
+      <c r="B122" s="2">
         <v>107</v>
       </c>
-      <c r="B108" s="3">
-        <v>93</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="2">
+      <c r="C122" s="12"/>
+      <c r="D122" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>124</v>
+      </c>
+      <c r="B123" s="2">
         <v>108</v>
       </c>
-      <c r="B109" s="3">
-        <v>94</v>
-      </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110">
+      <c r="C123" s="21"/>
+      <c r="D123" s="11"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>125</v>
+      </c>
+      <c r="B124" s="2">
         <v>109</v>
       </c>
-      <c r="B110" s="3">
-        <v>95</v>
-      </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111">
+      <c r="C124" s="21"/>
+      <c r="D124" s="11"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>126</v>
+      </c>
+      <c r="B125" s="2">
         <v>110</v>
       </c>
-      <c r="B111" s="3">
-        <v>96</v>
-      </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112">
+      <c r="C125" s="13"/>
+      <c r="D125" s="11"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>127</v>
+      </c>
+      <c r="B126" s="2">
         <v>111</v>
       </c>
-      <c r="B112" s="3">
-        <v>97</v>
-      </c>
-      <c r="C112" s="9">
+      <c r="C126" s="1">
+        <v>61</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>128</v>
+      </c>
+      <c r="B127" s="2">
+        <v>112</v>
+      </c>
+      <c r="C127" s="17">
         <v>41</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D127" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113" s="3">
-        <v>98</v>
-      </c>
-      <c r="C113" s="6"/>
-      <c r="D113" s="2" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>129</v>
+      </c>
+      <c r="B128" s="2">
+        <v>113</v>
+      </c>
+      <c r="C128" s="12"/>
+      <c r="D128" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114" s="3">
-        <v>99</v>
-      </c>
-      <c r="C114" s="6"/>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>130</v>
+      </c>
+      <c r="B129" s="2">
         <v>114</v>
       </c>
-      <c r="B115" s="3">
-        <v>100</v>
-      </c>
-      <c r="C115" s="5">
-        <v>58</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116">
+      <c r="C129" s="13"/>
+      <c r="D129" s="11"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>131</v>
+      </c>
+      <c r="B130" s="2">
         <v>115</v>
       </c>
-      <c r="B116" s="3">
-        <v>101</v>
-      </c>
-      <c r="C116" s="6"/>
-      <c r="D116" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117">
+      <c r="C130" s="19">
+        <v>16</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>133</v>
+      </c>
+      <c r="B131" s="2">
         <v>116</v>
       </c>
-      <c r="B117" s="3">
-        <v>102</v>
-      </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118">
+      <c r="C131" s="14"/>
+      <c r="D131" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>134</v>
+      </c>
+      <c r="B132" s="2">
         <v>117</v>
       </c>
-      <c r="B118" s="3">
-        <v>103</v>
-      </c>
-      <c r="C118" s="7">
+      <c r="C132" s="15"/>
+      <c r="D132" s="11"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>135</v>
+      </c>
+      <c r="B133" s="2">
+        <v>118</v>
+      </c>
+      <c r="C133" s="15"/>
+      <c r="D133" s="11"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>136</v>
+      </c>
+      <c r="B134" s="2">
+        <v>119</v>
+      </c>
+      <c r="C134" s="15"/>
+      <c r="D134" s="11"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>137</v>
+      </c>
+      <c r="B135" s="2">
+        <v>120</v>
+      </c>
+      <c r="C135" s="15"/>
+      <c r="D135" s="11"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>138</v>
+      </c>
+      <c r="B136" s="2">
+        <v>121</v>
+      </c>
+      <c r="C136" s="15"/>
+      <c r="D136" s="11"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>139</v>
+      </c>
+      <c r="B137" s="2">
+        <v>122</v>
+      </c>
+      <c r="C137" s="15"/>
+      <c r="D137" s="11"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>140</v>
+      </c>
+      <c r="B138" s="2">
+        <v>123</v>
+      </c>
+      <c r="C138" s="15"/>
+      <c r="D138" s="11"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>141</v>
+      </c>
+      <c r="B139" s="2">
+        <v>124</v>
+      </c>
+      <c r="C139" s="5">
+        <v>11</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>142</v>
+      </c>
+      <c r="B140" s="2">
+        <v>125</v>
+      </c>
+      <c r="C140" s="12">
+        <v>4</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>143</v>
+      </c>
+      <c r="B141" s="2">
+        <v>126</v>
+      </c>
+      <c r="C141" s="13"/>
+      <c r="D141" s="11"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>144</v>
+      </c>
+      <c r="B142" s="2">
+        <v>127</v>
+      </c>
+      <c r="C142" s="19">
         <v>16</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D142" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E118" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119" s="3">
-        <v>104</v>
-      </c>
-      <c r="C119" s="7"/>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" s="3">
-        <v>105</v>
-      </c>
-      <c r="C120" s="7"/>
-      <c r="D120" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" s="3">
-        <v>106</v>
-      </c>
-      <c r="C121" s="7"/>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" s="3">
-        <v>107</v>
-      </c>
-      <c r="C122" s="7"/>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123" s="3">
-        <v>108</v>
-      </c>
-      <c r="C123" s="7"/>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124" s="3">
-        <v>109</v>
-      </c>
-      <c r="C124" s="7"/>
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" s="3">
-        <v>110</v>
-      </c>
-      <c r="C125" s="7"/>
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126" s="3">
-        <v>111</v>
-      </c>
-      <c r="C126" s="7"/>
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127" s="3">
-        <v>112</v>
-      </c>
-      <c r="C127" s="7"/>
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128" s="3">
-        <v>113</v>
-      </c>
-      <c r="C128" s="5">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>146</v>
+      </c>
+      <c r="B143" s="2">
+        <v>128</v>
+      </c>
+      <c r="C143" s="6"/>
+      <c r="D143" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>147</v>
+      </c>
+      <c r="B144" s="2">
+        <v>129</v>
+      </c>
+      <c r="C144" s="5">
         <v>11</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D144" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129" s="3">
-        <v>114</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130" s="3">
-        <v>115</v>
-      </c>
-      <c r="C130" s="6"/>
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>148</v>
+      </c>
+      <c r="B145" s="2">
         <v>130</v>
       </c>
-      <c r="B131" s="3">
-        <v>116</v>
-      </c>
-      <c r="C131" s="7">
+      <c r="C145" s="12">
+        <v>8</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>149</v>
+      </c>
+      <c r="B146" s="2">
+        <v>131</v>
+      </c>
+      <c r="C146" s="13"/>
+      <c r="D146" s="11"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>150</v>
+      </c>
+      <c r="B147" s="2">
+        <v>132</v>
+      </c>
+      <c r="C147" s="19">
         <v>16</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D147" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132" s="3">
-        <v>117</v>
-      </c>
-      <c r="C132" s="7"/>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133" s="3">
-        <v>118</v>
-      </c>
-      <c r="C133" s="8"/>
-      <c r="D133" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>152</v>
+      </c>
+      <c r="B148" s="2">
         <v>133</v>
       </c>
-      <c r="B134" s="3">
-        <v>119</v>
-      </c>
-      <c r="C134" s="5">
-        <v>11</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135">
+      <c r="C148" s="14"/>
+      <c r="D148" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>153</v>
+      </c>
+      <c r="B149" s="2">
         <v>134</v>
       </c>
-      <c r="B135" s="3">
-        <v>120</v>
-      </c>
-      <c r="C135" s="6"/>
-      <c r="D135" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136">
+      <c r="C149" s="15"/>
+      <c r="D149" s="11"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>154</v>
+      </c>
+      <c r="B150" s="2">
         <v>135</v>
       </c>
-      <c r="B136" s="3">
-        <v>121</v>
-      </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="C150" s="16"/>
+      <c r="D150" s="11"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>155</v>
+      </c>
+      <c r="B151" s="2">
         <v>136</v>
       </c>
-      <c r="B137" s="3">
-        <v>122</v>
-      </c>
-      <c r="C137" s="7">
-        <v>16</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="B138" s="3">
-        <v>123</v>
-      </c>
-      <c r="C138" s="7"/>
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="B139" s="3">
-        <v>124</v>
-      </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140" s="3">
-        <v>125</v>
-      </c>
-      <c r="C140" s="6"/>
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141" s="3">
-        <v>126</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="2"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="B142" s="3">
-        <v>127</v>
-      </c>
-      <c r="C142" s="5">
+      <c r="C151" s="5">
         <v>0</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D151" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="E151" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="C120:C127"/>
-    <mergeCell ref="D120:D127"/>
+  <mergeCells count="71">
+    <mergeCell ref="D108:D111"/>
     <mergeCell ref="C108:C111"/>
-    <mergeCell ref="D108:D111"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C91"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="D84:D91"/>
+    <mergeCell ref="D148:D150"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D1:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C59:C60"/>
     <mergeCell ref="D62:D65"/>
     <mergeCell ref="C62:C65"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="D71:D72"/>
     <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D1:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C83:C90"/>
+    <mergeCell ref="D83:D90"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D131:D138"/>
+    <mergeCell ref="C131:C138"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="C119:C120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
